--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_533.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_533.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32422-d1852902-Reviews-Motel_6_Gardena-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>?</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_533.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,243 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r461334653-Motel_6_Gardena-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>32422</t>
+  </si>
+  <si>
+    <t>1852902</t>
+  </si>
+  <si>
+    <t>461334653</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Never let me down always clean and a friendly staff!!</t>
+  </si>
+  <si>
+    <t>I love this place and the staff!!  The place is always clean and the staff always friendly.   This place has so many food places close by and plenty of stores you can walk too if you choose not to drive.  Overall even though some people say it is a pricey place for the area I think it is well deserved because no motel on this block can top this place!!!  GOOD for you and your family!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Joseph-05663, Guest Relations Manager at Motel 6 Gardena, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>I love this place and the staff!!  The place is always clean and the staff always friendly.   This place has so many food places close by and plenty of stores you can walk too if you choose not to drive.  Overall even though some people say it is a pricey place for the area I think it is well deserved because no motel on this block can top this place!!!  GOOD for you and your family!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r428043418-Motel_6_Gardena-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>428043418</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Disappointing - Over Priced - Cramped</t>
+  </si>
+  <si>
+    <t>I initially got real excited about this motel. Yes, it was pricey; however, the room was beautiful, spacious, and modern.  The parking lot was very crowded but that really isn't a big deal. Unfortunately, the entire place got loud right after dark. One of the employees actually road in and out of the parking lot on his motorcycle making a lot of noise. People were yelling and talking loud right outside the rooms with no consideration for other people. The location was not near any good places to eat or shop. Also, as the night progressed, there were sirens and helicopters flying around. Though the room was most excellent, I was exhausted by morning and couldn't wait to leave.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I initially got real excited about this motel. Yes, it was pricey; however, the room was beautiful, spacious, and modern.  The parking lot was very crowded but that really isn't a big deal. Unfortunately, the entire place got loud right after dark. One of the employees actually road in and out of the parking lot on his motorcycle making a lot of noise. People were yelling and talking loud right outside the rooms with no consideration for other people. The location was not near any good places to eat or shop. Also, as the night progressed, there were sirens and helicopters flying around. Though the room was most excellent, I was exhausted by morning and couldn't wait to leave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r424911117-Motel_6_Gardena-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>424911117</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Nice motel in average location</t>
+  </si>
+  <si>
+    <t>What you get here is quite simple. The rooms are all new with modern beds, functional and clean bath room, up to date TV with great channel selection, microwave/fridge, decent WiFi and fake wooden floors that are a lot cleaner than the usual carpet for a very fair rate.It can be loud (traffic and fridge). You might have to take the stairs. The location really depends on where you want to be (On a drive through or last stop before airport? Then it is fine)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>What you get here is quite simple. The rooms are all new with modern beds, functional and clean bath room, up to date TV with great channel selection, microwave/fridge, decent WiFi and fake wooden floors that are a lot cleaner than the usual carpet for a very fair rate.It can be loud (traffic and fridge). You might have to take the stairs. The location really depends on where you want to be (On a drive through or last stop before airport? Then it is fine)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r344975646-Motel_6_Gardena-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>344975646</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>basic hotel</t>
+  </si>
+  <si>
+    <t>Hotel in simple and basic. Room was clean and frecently renovated. No place to hang cloth or hangers. No coffee maker in room. Air-condition unit was noisy. Hotel undergoing renovation and there is much construction traffic and noise during the day. Parking is very crowded and handicap place was always taken by non-handicap cars ( I use handicap parking). Hotel manager did not respond to my request to clear the place. He was otherwise helpful. Area is partially industrial.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Joseph-05663, Guest Relations Manager at Motel 6 Gardena, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Hotel in simple and basic. Room was clean and frecently renovated. No place to hang cloth or hangers. No coffee maker in room. Air-condition unit was noisy. Hotel undergoing renovation and there is much construction traffic and noise during the day. Parking is very crowded and handicap place was always taken by non-handicap cars ( I use handicap parking). Hotel manager did not respond to my request to clear the place. He was otherwise helpful. Area is partially industrial.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r331094883-Motel_6_Gardena-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>331094883</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>good motel</t>
+  </si>
+  <si>
+    <t>my room on 2 second floor, spacious , clean and good enough for a single person. The location is fine, I heart it not really safe but I think it was ok for me. It is hard to find the renting car service around, easy to find food and store around.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>my room on 2 second floor, spacious , clean and good enough for a single person. The location is fine, I heart it not really safe but I think it was ok for me. It is hard to find the renting car service around, easy to find food and store around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r326347148-Motel_6_Gardena-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>326347148</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice hotel poor location </t>
+  </si>
+  <si>
+    <t>The hotel itself I have nothing bad to say about. Friendly staff clean rooms free coffee. everything in order. The location however is not great. There isn't anywhere nice to eat near by. The area is quite dirty and from what I have heard isn't a place you want to go walking alone at night. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Victor90250, Guest Relations Manager at Motel 6 Gardena, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>The hotel itself I have nothing bad to say about. Friendly staff clean rooms free coffee. everything in order. The location however is not great. There isn't anywhere nice to eat near by. The area is quite dirty and from what I have heard isn't a place you want to go walking alone at night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r223470113-Motel_6_Gardena-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>223470113</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>not a new Studio 6</t>
+  </si>
+  <si>
+    <t>Only parts of the room are updated unlike other new Studio 6 's in the chain.Area seems a bit dodgey and borders the infamous area of Compton, but that does not mean you should not stay as the parking lot seems well back from any problems and was clean overall.I would recommend staying here if your in the area only, its not that bad really.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Gardena, responded to this reviewResponded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Only parts of the room are updated unlike other new Studio 6 's in the chain.Area seems a bit dodgey and borders the infamous area of Compton, but that does not mean you should not stay as the parking lot seems well back from any problems and was clean overall.I would recommend staying here if your in the area only, its not that bad really.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r186065019-Motel_6_Gardena-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>186065019</t>
+  </si>
+  <si>
+    <t>11/27/2013</t>
+  </si>
+  <si>
+    <t>Great quality for the price</t>
+  </si>
+  <si>
+    <t>We stayed in this motel in June 2013, after a 6days trip to Vegas and the hotel is weel located (not far from Venice Beach, and all the great things to do in LA.We tried another Motel 6 before the Vegas trip and this one was better ! The price is low and the quality is here so we couldn't ask for more. We did not expect anything big but the housekeeeping did a great job as well as the receptionist (he recommended a great restaurant !). Theparking was safe ...For all the people criticizing this hotel you should probably go in Beverly Hills and pay 1000$ per night before saying this hotel is not nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We stayed in this motel in June 2013, after a 6days trip to Vegas and the hotel is weel located (not far from Venice Beach, and all the great things to do in LA.We tried another Motel 6 before the Vegas trip and this one was better ! The price is low and the quality is here so we couldn't ask for more. We did not expect anything big but the housekeeeping did a great job as well as the receptionist (he recommended a great restaurant !). Theparking was safe ...For all the people criticizing this hotel you should probably go in Beverly Hills and pay 1000$ per night before saying this hotel is not nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r175467509-Motel_6_Gardena-Gardena_California.html</t>
+  </si>
+  <si>
+    <t>175467509</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Disgusting motel!!!!!</t>
+  </si>
+  <si>
+    <t>Stood here for labor day weekend..pictures that you see on their website are not what the rooms look like! Or the room overall.. The sheets of the bed were ripped, had blood stains, and were burned from what looked like cigarette marks..the bed totally failed! The carpet is beyond dirty, it has stains everywhere! To top it off they had a sofa in the room and it has got to be the most disgusting thing I've seen in my life! This sofa was sooooo dirty, that you couldn't even see what the real color of the sofa was..the t.v is from the 90's, along with the t.v stand! Overall i will never stay in this location again!! Ive stayed at motel 6 by disneyland and that location is super clean and everything in the room is good! I say you pay few bucks more and stay somewhere better!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Stood here for labor day weekend..pictures that you see on their website are not what the rooms look like! Or the room overall.. The sheets of the bed were ripped, had blood stains, and were burned from what looked like cigarette marks..the bed totally failed! The carpet is beyond dirty, it has stains everywhere! To top it off they had a sofa in the room and it has got to be the most disgusting thing I've seen in my life! This sofa was sooooo dirty, that you couldn't even see what the real color of the sofa was..the t.v is from the 90's, along with the t.v stand! Overall i will never stay in this location again!! Ive stayed at motel 6 by disneyland and that location is super clean and everything in the room is good! I say you pay few bucks more and stay somewhere better!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +885,597 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51660</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>51660</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51660</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>51660</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>51660</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>51660</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>96</v>
+      </c>
+      <c r="X7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>51660</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>51660</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>51660</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_533.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_533.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="132">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>savyadvocate1</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>I love this place and the staff!!  The place is always clean and the staff always friendly.   This place has so many food places close by and plenty of stores you can walk too if you choose not to drive.  Overall even though some people say it is a pricey place for the area I think it is well deserved because no motel on this block can top this place!!!  GOOD for you and your family!More</t>
   </si>
   <si>
+    <t>jjpi2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r428043418-Motel_6_Gardena-Gardena_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>I initially got real excited about this motel. Yes, it was pricey; however, the room was beautiful, spacious, and modern.  The parking lot was very crowded but that really isn't a big deal. Unfortunately, the entire place got loud right after dark. One of the employees actually road in and out of the parking lot on his motorcycle making a lot of noise. People were yelling and talking loud right outside the rooms with no consideration for other people. The location was not near any good places to eat or shop. Also, as the night progressed, there were sirens and helicopters flying around. Though the room was most excellent, I was exhausted by morning and couldn't wait to leave.More</t>
   </si>
   <si>
+    <t>Bastian D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r424911117-Motel_6_Gardena-Gardena_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>What you get here is quite simple. The rooms are all new with modern beds, functional and clean bath room, up to date TV with great channel selection, microwave/fridge, decent WiFi and fake wooden floors that are a lot cleaner than the usual carpet for a very fair rate.It can be loud (traffic and fridge). You might have to take the stairs. The location really depends on where you want to be (On a drive through or last stop before airport? Then it is fine)More</t>
   </si>
   <si>
+    <t>DCtraveller41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r344975646-Motel_6_Gardena-Gardena_California.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>Hotel in simple and basic. Room was clean and frecently renovated. No place to hang cloth or hangers. No coffee maker in room. Air-condition unit was noisy. Hotel undergoing renovation and there is much construction traffic and noise during the day. Parking is very crowded and handicap place was always taken by non-handicap cars ( I use handicap parking). Hotel manager did not respond to my request to clear the place. He was otherwise helpful. Area is partially industrial.More</t>
   </si>
   <si>
+    <t>ThanhGreen159</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r331094883-Motel_6_Gardena-Gardena_California.html</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>my room on 2 second floor, spacious , clean and good enough for a single person. The location is fine, I heart it not really safe but I think it was ok for me. It is hard to find the renting car service around, easy to find food and store around.More</t>
   </si>
   <si>
+    <t>Jack B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r326347148-Motel_6_Gardena-Gardena_California.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>The hotel itself I have nothing bad to say about. Friendly staff clean rooms free coffee. everything in order. The location however is not great. There isn't anywhere nice to eat near by. The area is quite dirty and from what I have heard isn't a place you want to go walking alone at night. More</t>
   </si>
   <si>
+    <t>WelcomeMat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r223470113-Motel_6_Gardena-Gardena_California.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>Only parts of the room are updated unlike other new Studio 6 's in the chain.Area seems a bit dodgey and borders the infamous area of Compton, but that does not mean you should not stay as the parking lot seems well back from any problems and was clean overall.I would recommend staying here if your in the area only, its not that bad really.More</t>
   </si>
   <si>
+    <t>TitauaFabien</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r186065019-Motel_6_Gardena-Gardena_California.html</t>
   </si>
   <si>
@@ -364,6 +388,9 @@
   </si>
   <si>
     <t>We stayed in this motel in June 2013, after a 6days trip to Vegas and the hotel is weel located (not far from Venice Beach, and all the great things to do in LA.We tried another Motel 6 before the Vegas trip and this one was better ! The price is low and the quality is here so we couldn't ask for more. We did not expect anything big but the housekeeeping did a great job as well as the receptionist (he recommended a great restaurant !). Theparking was safe ...For all the people criticizing this hotel you should probably go in Beverly Hills and pay 1000$ per night before saying this hotel is not nice!More</t>
+  </si>
+  <si>
+    <t>elizabethr676</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32422-d1852902-r175467509-Motel_6_Gardena-Gardena_California.html</t>
@@ -889,43 +916,47 @@
       <c r="A2" t="n">
         <v>51660</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -943,56 +974,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>51660</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1010,56 +1045,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>51660</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1075,56 +1114,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>51660</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1140,56 +1183,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>51660</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1205,56 +1252,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>51660</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1266,56 +1317,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>51660</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1333,56 +1388,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>51660</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="O9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1406,50 +1465,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>51660</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1473,7 +1536,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
